--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,24 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Handicap</t>
   </si>
   <si>
     <t>Round</t>
   </si>
   <si>
+    <t>Competition</t>
+  </si>
+  <si>
     <t>Dave</t>
+  </si>
+  <si>
+    <t>Robert Brown</t>
   </si>
   <si>
     <t>Craig</t>
   </si>
   <si>
     <t>Dan</t>
+  </si>
+  <si>
+    <t>Single Stableford</t>
   </si>
 </sst>
 </file>
@@ -159,10 +174,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -171,10 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1257,14 +1272,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1277,89 +1293,153 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6">
+        <v>59</v>
+      </c>
+      <c r="D2" s="7">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="F2" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="A3" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>78</v>
+      </c>
+      <c r="C3" s="7">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="F3" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="A4" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
+        <v>75</v>
+      </c>
+      <c r="C4" s="7">
+        <v>64</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="F4" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>80</v>
+      </c>
+      <c r="C5" s="7">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>91</v>
+      </c>
+      <c r="C7" s="7">
+        <v>75</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -90,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -158,13 +158,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -187,6 +224,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1385,11 +1431,17 @@
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16</v>
+      </c>
       <c r="E6" s="7">
         <v>2</v>
       </c>
@@ -1398,48 +1450,36 @@
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>91</v>
-      </c>
-      <c r="C7" s="7">
-        <v>75</v>
-      </c>
-      <c r="D7" s="7">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s" s="4">
-        <v>10</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,39 +11,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Handicap</t>
-  </si>
-  <si>
-    <t>Round</t>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>F9/B9</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
   <si>
     <t>Competition</t>
   </si>
   <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Robert Brown</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Single Stableford</t>
+    <t>Dave McMinn</t>
+  </si>
+  <si>
+    <t>Paul Mellor</t>
+  </si>
+  <si>
+    <t>Brain Combe</t>
+  </si>
+  <si>
+    <t>Paul Owens</t>
+  </si>
+  <si>
+    <t>Jim Hall</t>
+  </si>
+  <si>
+    <t>Jay Dempsey</t>
+  </si>
+  <si>
+    <t>Neil Bearne</t>
+  </si>
+  <si>
+    <t>Jay Francis</t>
+  </si>
+  <si>
+    <t>Andy Mee</t>
+  </si>
+  <si>
+    <t>Simon Peers</t>
+  </si>
+  <si>
+    <t>Tony Doyle</t>
+  </si>
+  <si>
+    <t>Chris Mausdsley</t>
+  </si>
+  <si>
+    <t>Jim Walker</t>
+  </si>
+  <si>
+    <t>Craig Pickerill</t>
+  </si>
+  <si>
+    <t>Mark Gregory</t>
+  </si>
+  <si>
+    <t>Nick Guest</t>
+  </si>
+  <si>
+    <t>Ben Gregory</t>
   </si>
 </sst>
 </file>
@@ -90,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,13 +231,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -223,10 +274,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -235,7 +295,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1318,13 +1387,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -1354,132 +1424,544 @@
         <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>78</v>
-      </c>
-      <c r="C2" s="6">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" t="s" s="4">
-        <v>7</v>
-      </c>
+      <c r="E2" s="8">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>78</v>
-      </c>
-      <c r="C3" s="7">
-        <v>62</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>36</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
         <v>16</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>7</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
-        <v>75</v>
-      </c>
-      <c r="C4" s="7">
-        <v>64</v>
-      </c>
-      <c r="D4" s="7">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>80</v>
-      </c>
-      <c r="C5" s="7">
-        <v>61</v>
-      </c>
-      <c r="D5" s="7">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s" s="4">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
-        <v>91</v>
-      </c>
-      <c r="C6" s="7">
-        <v>75</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="E6" s="7">
+      <c r="B12" s="8">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F6" t="s" s="4">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="B18" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11">
+        <v>32</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11">
+        <v>6</v>
+      </c>
+      <c r="E24" s="17">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8">
+        <v>30</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8">
+        <v>30</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B28" s="8">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8">
+        <v>7</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B30" s="8">
+        <v>27</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8">
+        <v>12</v>
+      </c>
+      <c r="E30" s="8">
+        <v>6</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B31" s="8">
+        <v>26</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8">
+        <v>13</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B32" s="8">
+        <v>24</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8">
+        <v>14</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B33" s="8">
+        <v>23</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8">
+        <v>15</v>
+      </c>
+      <c r="E33" s="8">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B34" s="8">
+        <v>21</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8">
+        <v>16</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B35" s="8">
+        <v>10</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8">
+        <v>17</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,75 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Gross</t>
   </si>
   <si>
-    <t>F9/B9</t>
+    <t xml:space="preserve">Net </t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Points</t>
+    <t>Round</t>
   </si>
   <si>
     <t>Competition</t>
   </si>
   <si>
-    <t>Dave McMinn</t>
+    <t>Dave</t>
   </si>
   <si>
-    <t>Paul Mellor</t>
+    <t>Single StableFord</t>
   </si>
   <si>
-    <t>Brain Combe</t>
+    <t>Craig</t>
   </si>
   <si>
-    <t>Paul Owens</t>
+    <t>Dan</t>
   </si>
   <si>
-    <t>Jim Hall</t>
-  </si>
-  <si>
-    <t>Jay Dempsey</t>
-  </si>
-  <si>
-    <t>Neil Bearne</t>
-  </si>
-  <si>
-    <t>Jay Francis</t>
-  </si>
-  <si>
-    <t>Andy Mee</t>
-  </si>
-  <si>
-    <t>Simon Peers</t>
-  </si>
-  <si>
-    <t>Tony Doyle</t>
-  </si>
-  <si>
-    <t>Chris Mausdsley</t>
-  </si>
-  <si>
-    <t>Jim Walker</t>
-  </si>
-  <si>
-    <t>Craig Pickerill</t>
-  </si>
-  <si>
-    <t>Mark Gregory</t>
-  </si>
-  <si>
-    <t>Nick Guest</t>
-  </si>
-  <si>
-    <t>Ben Gregory</t>
+    <t>1st Monthly Medal</t>
   </si>
 </sst>
 </file>
@@ -198,6 +159,21 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="10"/>
@@ -231,21 +207,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -274,37 +235,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1394,7 +1355,8 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -1415,23 +1377,23 @@
       <c r="E1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
-        <v>5</v>
-      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="4">
         <v>6</v>
-      </c>
-      <c r="B2" s="6">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>17</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1439,529 +1401,315 @@
       <c r="A3" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
-        <v>36</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8">
+      <c r="B3" s="7">
+        <v>91</v>
+      </c>
+      <c r="C3" s="7">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="4">
+      <c r="E5" t="s" s="4">
         <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8">
-        <v>14</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>9</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="A7" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
       <c r="D7" s="11">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11">
-        <v>12</v>
-      </c>
-      <c r="F7" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>30</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8">
-        <v>11</v>
-      </c>
-      <c r="F8" s="9"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
-        <v>30</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>24</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8">
-        <v>14</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B18" s="15">
-        <v>10</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>17</v>
-      </c>
-      <c r="F19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>16</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8">
-        <v>35</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8">
-        <v>15</v>
-      </c>
-      <c r="F21" s="9"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8">
-        <v>14</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8">
-        <v>33</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8">
-        <v>5</v>
-      </c>
-      <c r="E23" s="8">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="B24" s="11">
-        <v>32</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11">
-        <v>6</v>
-      </c>
-      <c r="E24" s="17">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8">
-        <v>30</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8">
-        <v>7</v>
-      </c>
-      <c r="E25" s="8">
-        <v>11</v>
-      </c>
-      <c r="F25" s="9"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B26" s="8">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B27" s="8">
-        <v>30</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8">
-        <v>9</v>
-      </c>
-      <c r="F27" s="9"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B28" s="8">
-        <v>37</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8">
-        <v>10</v>
-      </c>
-      <c r="E28" s="8">
-        <v>8</v>
-      </c>
-      <c r="F28" s="9"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B29" s="8">
-        <v>37</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8">
-        <v>7</v>
-      </c>
-      <c r="F29" s="9"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B30" s="8">
-        <v>27</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8">
-        <v>12</v>
-      </c>
-      <c r="E30" s="8">
-        <v>6</v>
-      </c>
-      <c r="F30" s="9"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B31" s="8">
-        <v>26</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8">
-        <v>13</v>
-      </c>
-      <c r="E31" s="8">
-        <v>5</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="B32" s="8">
-        <v>24</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8">
-        <v>14</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4</v>
-      </c>
-      <c r="F32" s="9"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B33" s="8">
-        <v>23</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8">
-        <v>15</v>
-      </c>
-      <c r="E33" s="8">
-        <v>3</v>
-      </c>
-      <c r="F33" s="9"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B34" s="8">
-        <v>21</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8">
-        <v>16</v>
-      </c>
-      <c r="E34" s="8">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B35" s="8">
-        <v>10</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8">
-        <v>17</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -213,7 +213,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -241,16 +241,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -260,9 +260,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1419,12 +1416,8 @@
       <c r="A4" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>1</v>
       </c>
@@ -1437,12 +1430,8 @@
       <c r="A5" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>2</v>
       </c>
@@ -1455,12 +1444,8 @@
       <c r="A6" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
@@ -1473,243 +1458,239 @@
       <c r="A7" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\CheadleBandits\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -39,35 +47,19 @@
   <si>
     <t>Dan</t>
   </si>
-  <si>
-    <t>1st Monthly Medal</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -209,62 +201,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,24 +231,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -416,7 +435,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -425,7 +444,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -434,7 +453,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -508,7 +527,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -516,7 +535,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -534,7 +553,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -588,7 +607,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -613,7 +632,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,7 +657,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -663,7 +682,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,7 +707,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +732,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -738,7 +757,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +782,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,9 +795,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -793,7 +818,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -801,7 +826,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -819,7 +844,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +869,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +894,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +919,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +944,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +969,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +994,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +1019,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1044,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1069,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,9 +1082,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1073,7 +1104,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1091,7 +1122,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1151,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1176,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1201,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,7 +1251,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1276,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1301,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,7 +1326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,142 +1364,168 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="9">
+        <v>75</v>
+      </c>
+      <c r="C4" s="9">
+        <v>11</v>
+      </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" t="s" s="4">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="6">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6">
+        <v>61</v>
+      </c>
       <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="4">
-        <v>9</v>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7">
+        <v>75</v>
+      </c>
       <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="4">
-        <v>9</v>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
       <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="4">
-        <v>9</v>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1476,7 +1533,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1484,7 +1541,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1492,7 +1549,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1500,7 +1557,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1508,7 +1565,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1516,7 +1573,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1524,7 +1581,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1532,7 +1589,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1540,7 +1597,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1548,7 +1605,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1556,7 +1613,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1564,7 +1621,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1572,7 +1629,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1580,7 +1637,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1588,7 +1645,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1596,7 +1653,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1604,7 +1661,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1612,7 +1669,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1620,7 +1677,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1628,7 +1685,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1636,7 +1693,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1644,7 +1701,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1652,7 +1709,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1660,7 +1717,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1668,7 +1725,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1676,7 +1733,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1684,7 +1741,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1694,7 +1751,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -89,14 +89,94 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -104,96 +184,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -203,26 +199,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,13 +1381,14 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.81640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
@@ -1400,358 +1396,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="13">
         <v>78</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="13">
         <v>59</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="14">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="13">
         <v>78</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>16</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="13">
         <v>75</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="13">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="13">
         <v>80</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="13">
         <v>61</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="13">
         <v>91</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <v>75</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="13">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Dan</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1390,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1420,8 +1429,8 @@
       <c r="B2" s="13">
         <v>78</v>
       </c>
-      <c r="C2" s="13">
-        <v>59</v>
+      <c r="C2" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -1438,8 +1447,8 @@
       <c r="B3" s="13">
         <v>78</v>
       </c>
-      <c r="C3" s="13">
-        <v>16</v>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -1456,7 +1465,7 @@
       <c r="B4" s="13">
         <v>75</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="14">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,12 +485,6 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
         <v>2</v>
       </c>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,17 +481,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -29,9 +29,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Gross </t>
-  </si>
-  <si>
     <t>Net</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Single Stableford</t>
+  </si>
+  <si>
+    <t>Gross</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -384,21 +384,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>78</v>
@@ -410,12 +410,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -427,12 +427,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -444,12 +444,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -461,12 +461,12 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>91</v>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -89,8 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,25 +377,29 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -400,10 +407,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>78</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>59</v>
       </c>
       <c r="D2">
@@ -417,10 +424,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>78</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>61</v>
       </c>
       <c r="D3">
@@ -434,10 +441,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>57</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>64</v>
       </c>
       <c r="D4">
@@ -451,10 +458,10 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>80</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>61</v>
       </c>
       <c r="D5">
@@ -468,10 +475,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>91</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>75</v>
       </c>
       <c r="D6">
@@ -483,5 +490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -41,19 +41,19 @@
     <t>Dave</t>
   </si>
   <si>
-    <t>Robert Brown Oct 24</t>
-  </si>
-  <si>
     <t>Craig</t>
   </si>
   <si>
     <t>Dan</t>
   </si>
   <si>
-    <t>Single Stableford</t>
-  </si>
-  <si>
     <t>Gross</t>
+  </si>
+  <si>
+    <t>Robert Brown 19 Oct 24</t>
+  </si>
+  <si>
+    <t>Single Stableford 5 Apr 25</t>
   </si>
 </sst>
 </file>
@@ -377,13 +377,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="8.7265625" style="3"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -417,12 +417,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>78</v>
@@ -434,12 +434,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>57</v>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -468,12 +468,12 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>91</v>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3">
         <v>64</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Single Stableford 5 Apr 25</t>
+  </si>
+  <si>
+    <t>1st Monthly Medal 12 Apr 25</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,6 +494,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>76</v>
+      </c>
+      <c r="C7" s="3">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>86</v>
+      </c>
+      <c r="C8" s="3">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>1st Monthly Medal 12 Apr 25</t>
-  </si>
-  <si>
-    <t>David</t>
   </si>
 </sst>
 </file>
@@ -383,7 +380,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,7 +510,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>86</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\CheadleBandits\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Settings" sheetId="2" r:id="rId5"/>
-    <sheet name="Players" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Settings" sheetId="2" r:id="rId2"/>
+    <sheet name="Players" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -69,18 +77,12 @@
     <t>5/4/25</t>
   </si>
   <si>
-    <t>Stableford</t>
-  </si>
-  <si>
     <t>1st Monthly Medal</t>
   </si>
   <si>
     <t>12/4/25</t>
   </si>
   <si>
-    <t>Pro’s Roll Up Week 1</t>
-  </si>
-  <si>
     <t>17/4/25</t>
   </si>
   <si>
@@ -103,17 +105,26 @@
   </si>
   <si>
     <t>Joined Date</t>
+  </si>
+  <si>
+    <t>Pros Roll Up Stableford</t>
+  </si>
+  <si>
+    <t>Pro’s Roll Up Week 1 Stableford</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -121,31 +132,10 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
@@ -544,139 +534,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,32 +636,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ffd6d6d6"/>
-      <rgbColor rgb="ff89847f"/>
-      <rgbColor rgb="ffa6a29f"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="fff4f9f8"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFADADAD"/>
+      <rgbColor rgb="FF323232"/>
+      <rgbColor rgb="FFD6D6D6"/>
+      <rgbColor rgb="FF89847F"/>
+      <rgbColor rgb="FFA6A29F"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="FFF4F9F8"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -913,7 +916,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -931,7 +934,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,7 +963,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +988,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1013,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,7 +1038,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1063,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1088,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1113,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1138,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1163,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,9 +1176,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1192,7 +1201,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1210,7 +1219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1244,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1294,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1319,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +1344,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1369,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1394,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1419,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1444,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,9 +1457,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1464,7 +1479,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1482,7 +1497,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1526,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1551,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1576,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1601,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1611,7 +1626,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1636,7 +1651,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +1676,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1686,7 +1701,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,7 +1726,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1724,69 +1739,79 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.8516" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
@@ -1802,21 +1827,21 @@
       <c r="F2" s="9">
         <v>3</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9">
         <v>0.38</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6">
@@ -1832,21 +1857,21 @@
       <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="9">
-        <v>0.28</v>
-      </c>
-      <c r="I3" t="s" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="4">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6">
@@ -1862,21 +1887,21 @@
       <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" t="s" s="4">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="9">
         <v>0.18</v>
       </c>
-      <c r="I4" t="s" s="4">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s" s="4">
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6">
@@ -1894,21 +1919,21 @@
       <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="9">
-        <v>0.28</v>
-      </c>
-      <c r="I5" t="s" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" t="s" s="5">
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6">
@@ -1926,21 +1951,21 @@
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" t="s" s="10">
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="9">
         <v>0.18</v>
       </c>
-      <c r="I6" t="s" s="4">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6">
@@ -1956,21 +1981,21 @@
       <c r="F7" s="11">
         <v>3</v>
       </c>
-      <c r="G7" t="s" s="5">
-        <v>19</v>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="12">
         <v>0.18</v>
       </c>
-      <c r="I7" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s" s="4">
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6">
@@ -1986,21 +2011,21 @@
       <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="12">
-        <v>0.28</v>
-      </c>
-      <c r="I8" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s" s="4">
+      <c r="J8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6">
@@ -2016,21 +2041,21 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" t="s" s="5">
-        <v>19</v>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H9" s="12">
         <v>0.38</v>
       </c>
-      <c r="I9" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s" s="4">
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13"/>
@@ -2038,19 +2063,19 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="14"/>
-      <c r="G10" t="s" s="5">
-        <v>21</v>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="13"/>
@@ -2058,44 +2083,40 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="14"/>
-      <c r="G11" t="s" s="5">
-        <v>21</v>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" t="s" s="5">
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="12">
-        <v>34</v>
-      </c>
-      <c r="C12" s="9">
-        <v>40</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="9">
         <v>15</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="14"/>
-      <c r="G12" t="s" s="5">
-        <v>21</v>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
+      <c r="I12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2107,7 +2128,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2119,7 +2140,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2131,7 +2152,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2143,7 +2164,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2155,7 +2176,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2167,7 +2188,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -2179,7 +2200,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2191,7 +2212,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2203,7 +2224,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2215,7 +2236,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2227,7 +2248,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2239,7 +2260,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -2251,7 +2272,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -2263,7 +2284,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -2275,7 +2296,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -2287,7 +2308,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -2299,7 +2320,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2311,7 +2332,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -2323,7 +2344,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2335,7 +2356,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -2347,7 +2368,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2359,7 +2380,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2371,7 +2392,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -2383,7 +2404,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -2395,7 +2416,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -2407,7 +2428,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -2420,8 +2441,8 @@
       <c r="J39" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2429,91 +2450,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.8516" style="18" customWidth="1"/>
-    <col min="3" max="5" width="10.1719" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="10.1719" style="18" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="18" customWidth="1"/>
+    <col min="3" max="6" width="10.1796875" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="10.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="5">
-        <v>24</v>
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>26</v>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2521,8 +2542,8 @@
       <c r="E10" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Settings</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2531,115 +2552,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="6" width="16.36328125" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="16.36328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.35" customHeight="1">
-      <c r="A1" t="s" s="21">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" ht="15.4" customHeight="1">
-      <c r="A2" t="s" s="24">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="25">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="25">
-        <v>29</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" ht="15.15" customHeight="1">
-      <c r="A3" t="s" s="28">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="26">
         <v>12.7</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" ht="14.8" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" ht="14.8" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" ht="14.8" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" ht="14.8" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" ht="14.8" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="14.8" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" ht="14.8" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-    </row>
-    <row r="11" ht="15.05" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -146,7 +146,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,14 +161,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor auto="1"/>
+        <fgColor theme="2" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -536,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,18 +565,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -589,13 +597,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,6 +636,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1758,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1810,635 +1852,683 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="37">
         <v>59</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="38">
         <v>78</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="40">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="40">
         <v>0.38</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="37">
         <v>61</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="38">
         <v>78</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="40">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="37">
         <v>64</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="38">
         <v>75</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="40">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="40">
         <v>0.18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="44">
         <v>61</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="45">
         <v>80</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="46">
         <v>38</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="46">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="46">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:10" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="44">
         <v>75</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="45">
         <v>91</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="46">
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="46">
         <v>2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="46">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="46">
         <v>0.18</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="51">
         <v>61</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="52">
         <v>76</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+      <c r="D7" s="53"/>
+      <c r="E7" s="54">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="55">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="56">
         <v>0.18</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="51">
         <v>68</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="52">
         <v>86</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9">
+      <c r="D8" s="53"/>
+      <c r="E8" s="54">
         <v>3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="55">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:10" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="51">
         <v>63</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="52">
         <v>74</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9">
+      <c r="D9" s="53"/>
+      <c r="E9" s="54">
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="55">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="56">
         <v>0.38</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:10" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="5" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61">
+        <v>1</v>
+      </c>
+      <c r="F10" s="62">
+        <v>1</v>
+      </c>
+      <c r="G10" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="60"/>
+      <c r="I10" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:10" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="5" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61">
+        <v>1</v>
+      </c>
+      <c r="F11" s="62">
+        <v>1</v>
+      </c>
+      <c r="G11" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="60"/>
+      <c r="I11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:10" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9">
+      <c r="B12" s="65"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="66">
         <v>15</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="61">
+        <v>1</v>
+      </c>
+      <c r="F12" s="62">
+        <v>1</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
@@ -2457,10 +2547,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" style="18" customWidth="1"/>
-    <col min="3" max="6" width="10.1796875" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="10.1796875" style="18"/>
+    <col min="1" max="1" width="21.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="8" customWidth="1"/>
+    <col min="3" max="6" width="10.1796875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="10.1796875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2470,16 +2560,16 @@
       <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -2488,58 +2578,58 @@
       <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2562,98 +2652,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="16.36328125" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="16.36328125" style="20"/>
+    <col min="1" max="6" width="16.36328125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="16.36328125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="16">
         <v>12.7</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -627,15 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -670,6 +661,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1803,21 +1803,21 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.453125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1828,347 +1828,347 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34">
+        <v>59</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="F2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="34">
+        <v>61</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37">
+        <v>2</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="34">
+        <v>64</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37">
+        <v>3</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="37">
-        <v>59</v>
-      </c>
-      <c r="C2" s="38">
-        <v>78</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40">
+      <c r="B5" s="41">
+        <v>61</v>
+      </c>
+      <c r="C5" s="43">
+        <v>38</v>
+      </c>
+      <c r="D5" s="43">
         <v>1</v>
       </c>
-      <c r="F2" s="40">
+      <c r="E5" s="43">
+        <v>2</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="43">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="41">
+        <v>75</v>
+      </c>
+      <c r="C6" s="43">
+        <v>24</v>
+      </c>
+      <c r="D6" s="43">
+        <v>2</v>
+      </c>
+      <c r="E6" s="43">
+        <v>1</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="43">
+        <v>0.18</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="42">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="48">
+        <v>61</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51">
+        <v>1</v>
+      </c>
+      <c r="E7" s="52">
         <v>3</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="40">
+      <c r="F7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0.18</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="49">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="48">
+        <v>68</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51">
+        <v>3</v>
+      </c>
+      <c r="E8" s="52">
+        <v>2</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="53">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="49">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="48">
+        <v>63</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51">
+        <v>2</v>
+      </c>
+      <c r="E9" s="52">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="53">
         <v>0.38</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="41" t="s">
+      <c r="H9" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="J9" s="49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="37">
-        <v>61</v>
-      </c>
-      <c r="C3" s="38">
-        <v>78</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40">
-        <v>2</v>
-      </c>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="40">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58">
+        <v>1</v>
+      </c>
+      <c r="E10" s="59">
+        <v>1</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58">
+        <v>1</v>
+      </c>
+      <c r="E11" s="59">
+        <v>1</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37">
-        <v>64</v>
-      </c>
-      <c r="C4" s="38">
-        <v>75</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40">
-        <v>3</v>
-      </c>
-      <c r="F4" s="40">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63">
+        <v>15</v>
+      </c>
+      <c r="D12" s="58">
         <v>1</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="40">
-        <v>0.18</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="44">
-        <v>61</v>
-      </c>
-      <c r="C5" s="45">
-        <v>80</v>
-      </c>
-      <c r="D5" s="46">
-        <v>38</v>
-      </c>
-      <c r="E5" s="46">
+      <c r="E12" s="59">
         <v>1</v>
       </c>
-      <c r="F5" s="46">
-        <v>2</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="46">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="48" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="44">
-        <v>75</v>
-      </c>
-      <c r="C6" s="45">
-        <v>91</v>
-      </c>
-      <c r="D6" s="46">
-        <v>24</v>
-      </c>
-      <c r="E6" s="46">
-        <v>2</v>
-      </c>
-      <c r="F6" s="46">
-        <v>1</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="46">
-        <v>0.18</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="51">
-        <v>61</v>
-      </c>
-      <c r="C7" s="52">
-        <v>76</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54">
-        <v>1</v>
-      </c>
-      <c r="F7" s="55">
-        <v>3</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="56">
-        <v>0.18</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="51">
-        <v>68</v>
-      </c>
-      <c r="C8" s="52">
-        <v>86</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54">
-        <v>3</v>
-      </c>
-      <c r="F8" s="55">
-        <v>2</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="56">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="51">
-        <v>63</v>
-      </c>
-      <c r="C9" s="52">
-        <v>74</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54">
-        <v>2</v>
-      </c>
-      <c r="F9" s="55">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0.38</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61">
-        <v>1</v>
-      </c>
-      <c r="F10" s="62">
-        <v>1</v>
-      </c>
-      <c r="G10" s="59" t="s">
+      <c r="F12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="63" t="s">
+      <c r="G12" s="57"/>
+      <c r="H12" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="I12" s="60" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61">
-        <v>1</v>
-      </c>
-      <c r="F11" s="62">
-        <v>1</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="66">
-        <v>15</v>
-      </c>
-      <c r="E12" s="61">
-        <v>1</v>
-      </c>
-      <c r="F12" s="62">
-        <v>1</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="63" t="s">
-        <v>28</v>
-      </c>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
@@ -2176,11 +2176,11 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
@@ -2188,11 +2188,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
@@ -2200,11 +2200,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
@@ -2212,11 +2212,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
@@ -2224,11 +2224,11 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2236,299 +2236,299 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
@@ -2657,13 +2657,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>19/10/24</t>
-  </si>
-  <si>
-    <t>Medal</t>
   </si>
   <si>
     <t>Craig Pickerill</t>
@@ -1803,7 +1800,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1876,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" s="35">
         <v>78</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="3" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="34">
         <v>61</v>
@@ -1906,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" s="35">
         <v>78</v>
@@ -1914,7 +1911,7 @@
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="34">
         <v>64</v>
@@ -1936,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" s="35">
         <v>75</v>
@@ -1959,16 +1956,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="43">
         <v>0.28000000000000003</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="42">
         <v>80</v>
@@ -1976,7 +1973,7 @@
     </row>
     <row r="6" spans="1:10" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="41">
         <v>75</v>
@@ -1991,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="43">
         <v>0.18</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="42">
         <v>91</v>
@@ -2008,7 +2005,7 @@
     </row>
     <row r="7" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="48">
         <v>61</v>
@@ -2021,16 +2018,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="53">
         <v>0.18</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="J7" s="49">
         <v>76</v>
@@ -2051,16 +2048,16 @@
         <v>2</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="53">
         <v>0.28000000000000003</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="J8" s="49">
         <v>86</v>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="9" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="48">
         <v>63</v>
@@ -2081,16 +2078,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="53">
         <v>0.38</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="J9" s="49">
         <v>74</v>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="58"/>
@@ -2109,14 +2106,14 @@
         <v>1</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="58"/>
     </row>
@@ -2133,20 +2130,20 @@
         <v>1</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="63">
@@ -2159,14 +2156,14 @@
         <v>1</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="56"/>
     </row>
@@ -2555,10 +2552,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -2573,10 +2570,10 @@
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2658,7 +2655,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -2670,17 +2667,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="16">
         <v>12.7</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Gross</t>
   </si>
   <si>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>Pro’s Roll Up Week 1 Stableford</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Net Score</t>
   </si>
 </sst>
 </file>
@@ -1800,14 +1803,14 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" style="1" customWidth="1"/>
@@ -1822,36 +1825,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="34">
         <v>59</v>
@@ -1864,16 +1867,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="37">
         <v>0.38</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="35">
         <v>78</v>
@@ -1881,7 +1884,7 @@
     </row>
     <row r="3" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="34">
         <v>61</v>
@@ -1894,16 +1897,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="37">
         <v>0.28000000000000003</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="35">
         <v>78</v>
@@ -1911,7 +1914,7 @@
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="34">
         <v>64</v>
@@ -1924,16 +1927,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="37">
         <v>0.18</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="35">
         <v>75</v>
@@ -1941,7 +1944,7 @@
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="41">
         <v>61</v>
@@ -1956,16 +1959,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="43">
         <v>0.28000000000000003</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="42">
         <v>80</v>
@@ -1973,7 +1976,7 @@
     </row>
     <row r="6" spans="1:10" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="41">
         <v>75</v>
@@ -1988,16 +1991,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="43">
         <v>0.18</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="42">
         <v>91</v>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="7" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="48">
         <v>61</v>
@@ -2018,16 +2021,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="53">
         <v>0.18</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="49">
         <v>76</v>
@@ -2035,7 +2038,7 @@
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="48">
         <v>68</v>
@@ -2048,16 +2051,16 @@
         <v>2</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="53">
         <v>0.28000000000000003</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="49">
         <v>86</v>
@@ -2065,7 +2068,7 @@
     </row>
     <row r="9" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="48">
         <v>63</v>
@@ -2078,16 +2081,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="53">
         <v>0.38</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="49">
         <v>74</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="58"/>
@@ -2106,20 +2109,20 @@
         <v>1</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
@@ -2130,22 +2133,24 @@
         <v>1</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="62"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="62">
+        <v>34</v>
+      </c>
       <c r="C12" s="63">
         <v>15</v>
       </c>
@@ -2156,16 +2161,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="56"/>
+        <v>26</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
@@ -2552,10 +2559,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -2570,10 +2577,10 @@
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2655,7 +2662,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -2667,17 +2674,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="16">
         <v>12.7</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -110,7 +110,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>Net Score</t>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,55 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\CheadleBandits\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Settings" sheetId="2" r:id="rId2"/>
-    <sheet name="Players" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Settings" sheetId="2" r:id="rId5"/>
+    <sheet name="Players" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Stableford Points</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Winnings</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Gross</t>
   </si>
   <si>
-    <t>Stableford Points</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Competition</t>
-  </si>
-  <si>
-    <t>Winnings</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Dave McMinn</t>
   </si>
   <si>
@@ -77,9 +72,18 @@
     <t>12/4/25</t>
   </si>
   <si>
+    <t>Pro’s Roll Up Week 1 Stableford</t>
+  </si>
+  <si>
     <t>17/4/25</t>
   </si>
   <si>
+    <t>Pros Roll Up Stableford</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -99,32 +103,17 @@
   </si>
   <si>
     <t>Joined Date</t>
-  </si>
-  <si>
-    <t>Pros Roll Up Stableford</t>
-  </si>
-  <si>
-    <t>Pro’s Roll Up Week 1 Stableford</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -132,21 +121,42 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
-      <color indexed="13"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="13"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,36 +171,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -275,6 +261,51 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -294,22 +325,18 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -318,70 +345,176 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -390,58 +523,58 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,58 +583,58 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,165 +643,199 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="54">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,85 +845,31 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFD8D8D8"/>
-      <rgbColor rgb="FFADADAD"/>
-      <rgbColor rgb="FF323232"/>
-      <rgbColor rgb="FFD6D6D6"/>
-      <rgbColor rgb="FF89847F"/>
-      <rgbColor rgb="FFA6A29F"/>
-      <rgbColor rgb="FFE3E3E3"/>
-      <rgbColor rgb="FFF4F9F8"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffadadad"/>
+      <rgbColor rgb="ff323232"/>
+      <rgbColor rgb="ffd6d6d6"/>
+      <rgbColor rgb="ff89847f"/>
+      <rgbColor rgb="ffa6a29f"/>
+      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="fff4f9f8"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -958,7 +1071,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -976,7 +1089,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1118,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1143,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1168,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1193,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1218,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1243,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1205,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,15 +1331,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1243,7 +1350,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1261,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1418,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1443,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,7 +1468,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1493,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1518,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1543,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1568,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,7 +1593,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,15 +1606,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1521,7 +1622,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1539,7 +1640,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1669,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,7 +1694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,7 +1719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1643,7 +1744,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1668,7 +1769,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1794,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1718,7 +1819,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1743,7 +1844,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,7 +1869,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1781,762 +1882,747 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.8516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="34">
-        <v>59</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37">
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="J2" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.28</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <v>64</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="37">
+      <c r="F4" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="H4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.28</v>
+      </c>
+      <c r="H5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="H6" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="J6" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>61</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F7" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="H7" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="J7" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="37">
+      <c r="B8" s="6">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.28</v>
+      </c>
+      <c r="H8" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="J8" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="G9" s="12">
         <v>0.38</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="H9" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="J9" s="9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="J2" s="35">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="34">
-        <v>61</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37">
-        <v>2</v>
-      </c>
-      <c r="E3" s="37">
-        <v>2</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="35">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="34">
-        <v>64</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37">
-        <v>3</v>
-      </c>
-      <c r="E4" s="37">
+      <c r="B11" s="16"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="37">
-        <v>0.18</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="35">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="41">
-        <v>61</v>
-      </c>
-      <c r="C5" s="43">
-        <v>38</v>
-      </c>
-      <c r="D5" s="43">
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="43">
-        <v>2</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="F11" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G5" s="43">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H5" s="44" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="8">
         <v>15</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="42">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="41">
-        <v>75</v>
-      </c>
-      <c r="C6" s="43">
-        <v>24</v>
-      </c>
-      <c r="D6" s="43">
-        <v>2</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0.18</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="42">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="48">
-        <v>61</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="52">
-        <v>3</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="53">
-        <v>0.18</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="49">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="48">
-        <v>68</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51">
-        <v>3</v>
-      </c>
-      <c r="E8" s="52">
-        <v>2</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="53">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="49">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="48">
-        <v>63</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51">
-        <v>2</v>
-      </c>
-      <c r="E9" s="52">
-        <v>1</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="53">
-        <v>0.38</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="49">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58">
-        <v>1</v>
-      </c>
-      <c r="E10" s="59">
-        <v>1</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="58"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58">
-        <v>1</v>
-      </c>
-      <c r="E11" s="59">
-        <v>1</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="58"/>
-    </row>
-    <row r="12" spans="1:10" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="62">
-        <v>34</v>
-      </c>
-      <c r="C12" s="63">
-        <v>15</v>
-      </c>
-      <c r="D12" s="58">
-        <v>1</v>
-      </c>
-      <c r="E12" s="59">
-        <v>1</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
+      <c r="F12" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2544,100 +2630,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.1667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" style="8" customWidth="1"/>
-    <col min="3" max="6" width="10.1796875" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="10.1796875" style="8"/>
+    <col min="1" max="1" width="21.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="35.8516" style="29" customWidth="1"/>
+    <col min="3" max="5" width="10.1719" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="10.1719" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Settings</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2646,115 +2732,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.36328125" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="16.36328125" style="10"/>
+    <col min="1" max="5" width="16.3516" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="1" ht="26.4" customHeight="1">
+      <c r="A1" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" ht="15.4" customHeight="1">
+      <c r="A2" t="s" s="35">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="B2" t="s" s="36">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="36">
+        <v>29</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" ht="15.15" customHeight="1">
+      <c r="A3" t="s" s="39">
+        <v>13</v>
+      </c>
+      <c r="B3" s="40">
         <v>12.7</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" ht="14.75" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" ht="14.75" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" ht="14.75" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" ht="14.75" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" ht="14.75" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" ht="14.75" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" ht="14.75" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -60,19 +60,19 @@
     <t>Dan Edmiston</t>
   </si>
   <si>
+    <t>Stableford</t>
+  </si>
+  <si>
+    <t>5/4/25</t>
+  </si>
+  <si>
     <t>Single Stableford</t>
   </si>
   <si>
-    <t>5/4/25</t>
-  </si>
-  <si>
     <t>1st Monthly Medal</t>
   </si>
   <si>
     <t>12/4/25</t>
-  </si>
-  <si>
-    <t>Pro’s Roll Up Week 1 Stableford</t>
   </si>
   <si>
     <t>17/4/25</t>
@@ -176,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -264,6 +264,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -674,7 +689,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -711,31 +726,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -762,6 +777,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -771,43 +789,40 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -816,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -825,16 +840,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2058,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" s="9">
         <v>80</v>
@@ -2078,7 +2096,7 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" t="s" s="4">
         <v>15</v>
       </c>
       <c r="G6" s="8">
@@ -2088,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="I6" t="s" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="9">
         <v>91</v>
@@ -2108,17 +2126,17 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="G7" s="13">
         <v>0.18</v>
       </c>
-      <c r="H7" t="s" s="13">
+      <c r="H7" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s" s="15">
         <v>18</v>
-      </c>
-      <c r="I7" t="s" s="14">
-        <v>17</v>
       </c>
       <c r="J7" s="9">
         <v>76</v>
@@ -2139,16 +2157,16 @@
         <v>2</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="G8" s="12">
+        <v>18</v>
+      </c>
+      <c r="G8" s="13">
         <v>0.28</v>
       </c>
-      <c r="H8" t="s" s="13">
+      <c r="H8" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s" s="15">
         <v>18</v>
-      </c>
-      <c r="I8" t="s" s="14">
-        <v>17</v>
       </c>
       <c r="J8" s="9">
         <v>86</v>
@@ -2169,16 +2187,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="G9" s="12">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13">
         <v>0.38</v>
       </c>
-      <c r="H9" t="s" s="13">
+      <c r="H9" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s" s="16">
         <v>18</v>
-      </c>
-      <c r="I9" t="s" s="15">
-        <v>17</v>
       </c>
       <c r="J9" s="9">
         <v>74</v>
@@ -2188,7 +2206,7 @@
       <c r="A10" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>1</v>
@@ -2197,9 +2215,9 @@
         <v>1</v>
       </c>
       <c r="F10" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" t="s" s="4">
         <v>20</v>
       </c>
@@ -2212,7 +2230,7 @@
       <c r="A11" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
         <v>1</v>
@@ -2221,22 +2239,22 @@
         <v>1</v>
       </c>
       <c r="F11" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" t="s" s="4">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8">
         <v>15</v>
       </c>
@@ -2247,26 +2265,26 @@
         <v>1</v>
       </c>
       <c r="F12" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G12" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="I12" t="s" s="13">
+      <c r="I12" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="J12" t="s" s="18">
+      <c r="J12" t="s" s="19">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2585,40 +2603,40 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="22"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.3"/>
@@ -2637,10 +2655,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="35.8516" style="29" customWidth="1"/>
-    <col min="3" max="5" width="10.1719" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="10.1719" style="29" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="35.8516" style="30" customWidth="1"/>
+    <col min="3" max="5" width="10.1719" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="10.1719" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -2650,16 +2668,16 @@
       <c r="B1" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="5">
@@ -2668,58 +2686,58 @@
       <c r="B3" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
@@ -2742,98 +2760,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="31" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.4" customHeight="1">
-      <c r="A1" t="s" s="32">
+      <c r="A1" t="s" s="33">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" ht="15.4" customHeight="1">
-      <c r="A2" t="s" s="35">
+      <c r="A2" t="s" s="36">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="36">
+      <c r="B2" t="s" s="37">
         <v>28</v>
       </c>
-      <c r="C2" t="s" s="36">
+      <c r="C2" t="s" s="37">
         <v>29</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="15.15" customHeight="1">
-      <c r="A3" t="s" s="39">
+      <c r="A3" t="s" s="40">
         <v>13</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="41">
         <v>12.7</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" ht="14.75" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" ht="14.75" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" ht="14.75" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" ht="14.75" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" ht="14.75" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" ht="14.75" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" ht="14.75" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -2056,7 +2056,9 @@
       <c r="A5" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <v>61</v>
+      </c>
       <c r="C5" s="8">
         <v>38</v>
       </c>
@@ -2086,7 +2088,9 @@
       <c r="A6" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6">
+        <v>75</v>
+      </c>
       <c r="C6" s="8">
         <v>24</v>
       </c>
@@ -2217,7 +2221,9 @@
       <c r="F10" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
       <c r="H10" t="s" s="4">
         <v>20</v>
       </c>
@@ -2241,7 +2247,9 @@
       <c r="F11" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
       <c r="H11" t="s" s="4">
         <v>20</v>
       </c>
@@ -2254,7 +2262,9 @@
       <c r="A12" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="13">
+        <v>34</v>
+      </c>
       <c r="C12" s="8">
         <v>15</v>
       </c>
@@ -2267,7 +2277,9 @@
       <c r="F12" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
       <c r="H12" t="s" s="4">
         <v>20</v>
       </c>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Robert Brown Trophy</t>
   </si>
   <si>
-    <t>19/10/24</t>
+    <t>19/10/2024</t>
   </si>
   <si>
     <t>Craig Pickerill</t>
@@ -60,25 +60,22 @@
     <t>Dan Edmiston</t>
   </si>
   <si>
-    <t>Stableford</t>
+    <t>Single Stableford</t>
   </si>
   <si>
-    <t>5/4/25</t>
-  </si>
-  <si>
-    <t>Single Stableford</t>
+    <t>5/4/2025</t>
   </si>
   <si>
     <t>1st Monthly Medal</t>
   </si>
   <si>
-    <t>12/4/25</t>
-  </si>
-  <si>
-    <t>17/4/25</t>
+    <t>12/4/2025</t>
   </si>
   <si>
     <t>Pros Roll Up Stableford</t>
+  </si>
+  <si>
+    <t>17/4/2025</t>
   </si>
   <si>
     <t>40</t>
@@ -176,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -264,13 +261,28 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -280,36 +292,6 @@
       </left>
       <right style="thin">
         <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -689,7 +671,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -726,15 +708,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -750,7 +732,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -777,9 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -789,40 +768,43 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -831,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -840,19 +822,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2078,7 +2057,7 @@
         <v>16</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="9">
         <v>80</v>
@@ -2100,7 +2079,7 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" t="s" s="4">
+      <c r="F6" t="s" s="10">
         <v>15</v>
       </c>
       <c r="G6" s="8">
@@ -2110,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="I6" t="s" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="9">
         <v>91</v>
@@ -2130,17 +2109,17 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="12">
+      <c r="F7" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="H7" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="G7" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="H7" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s" s="15">
-        <v>18</v>
+      <c r="I7" t="s" s="14">
+        <v>17</v>
       </c>
       <c r="J7" s="9">
         <v>76</v>
@@ -2161,16 +2140,16 @@
         <v>2</v>
       </c>
       <c r="F8" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.28</v>
+      </c>
+      <c r="H8" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="G8" s="13">
-        <v>0.28</v>
-      </c>
-      <c r="H8" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s" s="15">
-        <v>18</v>
+      <c r="I8" t="s" s="14">
+        <v>17</v>
       </c>
       <c r="J8" s="9">
         <v>86</v>
@@ -2190,17 +2169,17 @@
       <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="H9" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="G9" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="H9" t="s" s="14">
-        <v>19</v>
-      </c>
       <c r="I9" t="s" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="9">
         <v>74</v>
@@ -2215,20 +2194,20 @@
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
       <c r="H10" t="s" s="4">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="7"/>
     </row>
@@ -2241,20 +2220,20 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8">
         <v>0</v>
       </c>
       <c r="H11" t="s" s="4">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="18"/>
     </row>
@@ -2262,7 +2241,7 @@
       <c r="A12" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>34</v>
       </c>
       <c r="C12" s="8">
@@ -2271,32 +2250,32 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12">
         <v>0</v>
       </c>
       <c r="H12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="I12" t="s" s="14">
+      <c r="I12" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="J12" t="s" s="19">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2615,40 +2594,40 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.3"/>
@@ -2667,89 +2646,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="35.8516" style="30" customWidth="1"/>
-    <col min="3" max="5" width="10.1719" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="10.1719" style="30" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="35.8516" style="29" customWidth="1"/>
+    <col min="3" max="5" width="10.1719" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="10.1719" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
@@ -2772,98 +2751,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="32" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.4" customHeight="1">
-      <c r="A1" t="s" s="33">
+      <c r="A1" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" ht="15.4" customHeight="1">
+      <c r="A2" t="s" s="35">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="36">
         <v>27</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" ht="15.4" customHeight="1">
-      <c r="A2" t="s" s="36">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="37">
+      <c r="C2" t="s" s="36">
         <v>28</v>
       </c>
-      <c r="C2" t="s" s="37">
-        <v>29</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" ht="15.15" customHeight="1">
-      <c r="A3" t="s" s="40">
+      <c r="A3" t="s" s="39">
         <v>13</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>12.7</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" ht="14.75" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" ht="14.75" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" ht="14.75" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" ht="14.75" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" ht="14.75" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" ht="14.75" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" ht="14.75" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -90,6 +90,18 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
+    <t xml:space="preserve">Centenary Trophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/4/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centenary Trophy - Medal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/R</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
@@ -99,7 +111,34 @@
     <t xml:space="preserve">Next Competition</t>
   </si>
   <si>
-    <t xml:space="preserve">Saturday 19th April - Centenary Trophy - Medal</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pros Roll Up Week 2 - 24</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> April</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Table 1</t>
@@ -120,7 +159,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -144,6 +183,18 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -267,7 +318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,6 +343,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,7 +383,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,7 +427,6 @@
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -388,7 +442,6 @@
           <bgColor rgb="FF808080"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
 </styleSheet>
@@ -574,7 +627,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -871,7 +924,9 @@
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="C10" s="5" t="n">
         <v>18</v>
       </c>
@@ -901,7 +956,9 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="n">
+        <v>39</v>
+      </c>
       <c r="C11" s="5" t="n">
         <v>18</v>
       </c>
@@ -931,7 +988,9 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="5" t="n">
         <v>15</v>
       </c>
@@ -958,40 +1017,94 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>71</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>75</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
+      <c r="D14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
+      <c r="D15" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
@@ -1282,40 +1395,40 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
@@ -1346,7 +1459,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,10 +1471,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1376,10 +1489,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1462,93 +1575,93 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="20" t="n">
         <v>12.7</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -81,15 +81,18 @@
     <t xml:space="preserve">12/4/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Pros Roll Up Stableford WK 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/4/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pros Roll Up Stableford</t>
   </si>
   <si>
-    <t xml:space="preserve">17/4/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centenary Trophy</t>
   </si>
   <si>
@@ -100,6 +103,15 @@
   </si>
   <si>
     <t xml:space="preserve">N/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros Roll Up Stableford – WK 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros Roll Up Stableford WK 2</t>
   </si>
   <si>
     <t xml:space="preserve">Key</t>
@@ -159,7 +171,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -187,11 +199,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -318,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,10 +350,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,7 +386,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,7 +630,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1001,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
@@ -1030,17 +1033,17 @@
       <c r="E13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -1060,17 +1063,17 @@
       <c r="E14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -1090,45 +1093,85 @@
       <c r="E15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="J15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="5"/>
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
@@ -1395,40 +1438,40 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
@@ -1471,10 +1514,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1489,10 +1532,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1575,93 +1618,93 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20" t="n">
+      <c r="B3" s="19" t="n">
         <v>12.7</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -10,8 +10,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Players" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="HandicapHistory" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">HandicapHistory!$A$1:$C$19</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -114,6 +117,12 @@
     <t xml:space="preserve">Pros Roll Up Stableford WK 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Jubilee Bowl Stableford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/04/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
@@ -123,55 +132,47 @@
     <t xml:space="preserve">Next Competition</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Pros Roll Up Week 2 - 24</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> April</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 1</t>
+    <t xml:space="preserve">Pros Roll Up Week 3 – 01/05/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player</t>
   </si>
   <si>
     <t xml:space="preserve">Handicap</t>
   </si>
   <si>
-    <t xml:space="preserve">Joined Date</t>
+    <t xml:space="preserve">5 April 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 April 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 April 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 April 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 April 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 April 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 May 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -196,19 +197,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -325,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,32 +322,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -367,11 +383,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -379,31 +399,47 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -415,7 +451,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -446,8 +482,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,849 +684,910 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="6.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="8" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="8" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="n">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="8" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="8" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="8" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="8" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="n">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="8" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="8" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="9" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="D11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="9" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="n">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="9" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="9" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="n">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="9" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="9" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
@@ -1501,8 +1617,8 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1513,82 +1629,82 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1604,118 +1720,303 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="17.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="12.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="58.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="B1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="29" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="29" t="n">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="29" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="29" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="29" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="29" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="29" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="29" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="29" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="29" t="n">
         <v>12.7</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="29" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="29" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="29" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="29" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="29" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="29" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="29" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="29" t="n">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
+  <autoFilter ref="A1:C19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.25"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -123,6 +123,45 @@
     <t xml:space="preserve">26/04/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Pros Roll Up Stableford – WK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Monthly Medal</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">03/05/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
@@ -160,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">01 May 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 May 2025</t>
   </si>
 </sst>
 </file>
@@ -172,7 +214,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -196,6 +238,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -684,8 +733,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,77 +1374,179 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7"/>
+    <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
+      <c r="H23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>71</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
+      <c r="H24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>73</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
+      <c r="H25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>73</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="9"/>
+      <c r="H26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
@@ -1630,10 +1781,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1648,10 +1799,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1725,7 +1876,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1736,13 +1887,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1901,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="29" t="n">
         <v>13.2</v>
@@ -1761,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="29" t="n">
         <v>16.1</v>
@@ -1772,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" s="29" t="n">
         <v>15.6</v>
@@ -1783,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" s="29" t="n">
         <v>9.2</v>
@@ -1794,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="29" t="n">
         <v>12.4</v>
@@ -1805,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="29" t="n">
         <v>12.5</v>
@@ -1816,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>15.6</v>
@@ -1827,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" s="29" t="n">
         <v>9.2</v>
@@ -1838,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" s="29" t="n">
         <v>15.6</v>
@@ -1849,7 +2000,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="29" t="n">
         <v>12.7</v>
@@ -1860,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="29" t="n">
         <v>15.7</v>
@@ -1871,7 +2022,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="29" t="n">
         <v>9.2</v>
@@ -1882,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="29" t="n">
         <v>13.3</v>
@@ -1893,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" s="29" t="n">
         <v>15.6</v>
@@ -1904,7 +2055,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" s="29" t="n">
         <v>9.4</v>
@@ -1915,7 +2066,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="29" t="n">
         <v>12.3</v>
@@ -1926,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" s="29" t="n">
         <v>15.4</v>
@@ -1937,26 +2088,44 @@
         <v>14</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" s="29" t="n">
         <v>9.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="29" t="n">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="29" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="29" t="n">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
